--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Subjects</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Tìm hiểu các tạo bản cài đặt trong C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if(e.KeyCode==Keys.Enter)
+            {
+                //viet code o day
+            }</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,6 +172,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +479,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -534,6 +543,9 @@
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Subjects</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Not Defined</t>
-  </si>
-  <si>
-    <t>Tạo chương trình giao diện send text, khi gõ send, text chuyển từ ô gõ dưới đưa lên ô text trên</t>
   </si>
   <si>
     <t>Tìm hiểu các tạo bản cài đặt trong C#</t>
@@ -103,6 +100,19 @@
             {
                 //viet code o day
             }</t>
+  </si>
+  <si>
+    <t>Tạo chương trình giao diện send text, khi gõ Enter, text chuyển từ ô gõ dưới đưa lên ô text trên</t>
+  </si>
+  <si>
+    <t>Tạo chương trình Winform như trong thư mục</t>
+  </si>
+  <si>
+    <t>Sử dụng hàm MessageBox.Show(chuỗi cần hiển thị)
+để hiển thị kết quả</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -479,7 +489,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +540,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6">
         <v>41330</v>
@@ -539,13 +549,13 @@
         <v>41330</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -556,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6">
         <v>41330</v>
@@ -565,23 +575,44 @@
         <v>41333</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>41331</v>
+      </c>
+      <c r="E4" s="6">
+        <v>41332</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
